--- a/data/Check-Price-AMZ-EBAY.xlsx
+++ b/data/Check-Price-AMZ-EBAY.xlsx
@@ -529,7 +529,7 @@
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="7.28515625" customWidth="1" style="16" min="1" max="1"/>
     <col width="35.85546875" customWidth="1" style="16" min="2" max="2"/>
@@ -656,7 +656,7 @@
         <v>19.99</v>
       </c>
       <c r="K2" s="14">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L2" s="3" t="n"/>
@@ -718,7 +718,7 @@
         <v>85.98999999999999</v>
       </c>
       <c r="K3">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L3" s="3" t="n"/>
@@ -780,7 +780,7 @@
         <v>46.49</v>
       </c>
       <c r="K4">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L4" s="3" t="n"/>
@@ -842,7 +842,7 @@
         <v>25.5</v>
       </c>
       <c r="K5">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L5" s="3" t="n"/>
@@ -896,7 +896,7 @@
         <v>50</v>
       </c>
       <c r="K6">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L6" s="3" t="n"/>
@@ -958,7 +958,7 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L7" s="3" t="n"/>
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="J8" s="18" t="n">
-        <v>14.28</v>
+        <v>14</v>
       </c>
       <c r="K8">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L8" s="3" t="n"/>
@@ -1076,7 +1076,7 @@
         <v>38.93</v>
       </c>
       <c r="K9">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L9" s="3" t="n"/>
@@ -1130,7 +1130,7 @@
         <v>69.95999999999999</v>
       </c>
       <c r="K10">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L10" s="3" t="n"/>
@@ -1189,7 +1189,7 @@
         <v>49.99</v>
       </c>
       <c r="K11">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L11" s="3" t="n"/>
@@ -1243,7 +1243,7 @@
         <v>49.99</v>
       </c>
       <c r="K12">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L12" s="3" t="n"/>
@@ -1302,7 +1302,7 @@
         <v>45.97</v>
       </c>
       <c r="K13">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L13" s="3" t="n"/>
@@ -1361,7 +1361,7 @@
         <v>99.95</v>
       </c>
       <c r="K14">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L14" s="3" t="n"/>
@@ -1415,7 +1415,7 @@
         <v>49.59</v>
       </c>
       <c r="K15">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L15" s="3" t="n"/>
@@ -1469,7 +1469,7 @@
         <v>37.22</v>
       </c>
       <c r="K16">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L16" s="3" t="n"/>
@@ -1523,7 +1523,7 @@
         <v>39.99</v>
       </c>
       <c r="K17">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L17" s="3" t="n"/>
@@ -1577,7 +1577,7 @@
         <v>51.95</v>
       </c>
       <c r="K18">
-        <f>A2+B2+AC1</f>
+        <f>IF((E1-(E1*0.15+J1))&lt;0, TRUE, FALSE)</f>
         <v/>
       </c>
       <c r="L18" s="3" t="n"/>
